--- a/Results/genes.xlsx
+++ b/Results/genes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Romar\OneDrive\Documenten\Thesis\Test\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/406aaf9c23ac983a/Documenten/Thesis/Test/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6436C05-AF33-4710-AF8C-A8ACE2B2B078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{D6436C05-AF33-4710-AF8C-A8ACE2B2B078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A5F8565-CD3C-46C0-9030-65B9E640EEBB}"/>
   <bookViews>
-    <workbookView xWindow="-16290" yWindow="11325" windowWidth="16395" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16305" yWindow="11325" windowWidth="16410" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="195">
   <si>
     <t>AML</t>
   </si>
@@ -577,6 +577,57 @@
   </si>
   <si>
     <t>ABCC6</t>
+  </si>
+  <si>
+    <t>Adenosine deaminase (ADA) in leukemia: Clinical value of plasma ADA activity and characterization of leukemic cell ADA</t>
+  </si>
+  <si>
+    <t>ADA</t>
+  </si>
+  <si>
+    <t>SCNN1A</t>
+  </si>
+  <si>
+    <t>ENAH</t>
+  </si>
+  <si>
+    <t>MED28</t>
+  </si>
+  <si>
+    <t>TMEM106B</t>
+  </si>
+  <si>
+    <t>DPPA4</t>
+  </si>
+  <si>
+    <t>L2HGDH</t>
+  </si>
+  <si>
+    <t>CD244 maintains the proliferation ability of leukemia initiating cells through SHP-2/p27kip1 signaling</t>
+  </si>
+  <si>
+    <t>CD244</t>
+  </si>
+  <si>
+    <t>ARPP21</t>
+  </si>
+  <si>
+    <t>Structure and activity of putative intronic miRNA promoters</t>
+  </si>
+  <si>
+    <t>VRTN</t>
+  </si>
+  <si>
+    <t>FOXRED2</t>
+  </si>
+  <si>
+    <t>ASTE1</t>
+  </si>
+  <si>
+    <t>SEMA4C</t>
+  </si>
+  <si>
+    <t>PRR5</t>
   </si>
 </sst>
 </file>
@@ -944,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A125" workbookViewId="0">
+      <selection activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1854,7 +1905,101 @@
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>177</v>
+        <v>179</v>
+      </c>
+      <c r="B119" t="s">
+        <v>178</v>
+      </c>
+      <c r="C119" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>60</v>
+      </c>
+      <c r="B123" t="s">
+        <v>58</v>
+      </c>
+      <c r="C123" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" t="s">
+        <v>186</v>
+      </c>
+      <c r="C127" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>188</v>
+      </c>
+      <c r="B128" t="s">
+        <v>189</v>
+      </c>
+      <c r="C128" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Results/genes.xlsx
+++ b/Results/genes.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{D6436C05-AF33-4710-AF8C-A8ACE2B2B078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A5F8565-CD3C-46C0-9030-65B9E640EEBB}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="11325" windowWidth="16410" windowHeight="14145" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-2835" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="B133" sqref="B133"/>
+    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Results/genes.xlsx
+++ b/Results/genes.xlsx
@@ -997,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A128" sqref="A128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Results/genes.xlsx
+++ b/Results/genes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/406aaf9c23ac983a/Documenten/Thesis/Test/Results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RomarNathoeRepubliq\Documents\GitHub\Test\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{D6436C05-AF33-4710-AF8C-A8ACE2B2B078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A5F8565-CD3C-46C0-9030-65B9E640EEBB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC5E32-197E-4EFA-84B5-28B20DA4C150}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-2835" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4575" yWindow="1590" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="195">
   <si>
     <t>AML</t>
   </si>
@@ -634,7 +634,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +676,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -694,10 +702,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -715,8 +724,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -997,8 +1008,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A128" sqref="A128"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1053,7 +1064,7 @@
       <c r="A6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
@@ -1892,6 +1903,9 @@
       <c r="B116" t="s">
         <v>175</v>
       </c>
+      <c r="C116" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
@@ -2003,7 +2017,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{D6EC3B16-9B83-43F7-BC83-64BEF9A59C41}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>